--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8260" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8208" uniqueCount="481">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1072,7 +1072,7 @@
     <t>2025-03-05T06:20:09.385368Z</t>
   </si>
   <si>
-    <t>2025-08-04T08:40:30.758554Z</t>
+    <t>2025-08-04T12:32:14.254797Z</t>
   </si>
   <si>
     <t>2025-06-30T11:28:55.016259Z</t>
@@ -1231,7 +1231,7 @@
     <t>2025-03-07T09:21:56.234755Z</t>
   </si>
   <si>
-    <t>2025-08-04T08:37:32.649659Z</t>
+    <t>2025-08-04T12:31:29.724489Z</t>
   </si>
   <si>
     <t>2025-06-30T09:59:49.230815Z</t>
@@ -1424,6 +1424,9 @@
   </si>
   <si>
     <t>20-24_yrs</t>
+  </si>
+  <si>
+    <t>15-19_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 50_yrs</t>
@@ -6803,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="EF12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="EG12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="EH12" t="s">
         <v>191</v>
@@ -13941,7 +13944,7 @@
         <v>159</v>
       </c>
       <c r="EQ29" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:147">
@@ -14180,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="CB30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="CC30" t="s">
         <v>286</v>
@@ -14294,7 +14297,7 @@
         <v>237</v>
       </c>
       <c r="DU30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DV30" t="s">
         <v>195</v>
@@ -14360,7 +14363,7 @@
         <v>159</v>
       </c>
       <c r="EQ30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:147">
@@ -16033,7 +16036,7 @@
         <v>159</v>
       </c>
       <c r="EQ34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:147">
@@ -16452,7 +16455,7 @@
         <v>159</v>
       </c>
       <c r="EQ35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:147">
@@ -16886,7 +16889,7 @@
         <v>159</v>
       </c>
       <c r="EQ36" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:147">
@@ -19032,7 +19035,7 @@
         <v>159</v>
       </c>
       <c r="EQ41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:147">
@@ -19475,7 +19478,7 @@
         <v>159</v>
       </c>
       <c r="EQ42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:147">
@@ -20687,7 +20690,7 @@
         <v>0</v>
       </c>
       <c r="DX45" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="DY45" t="s">
         <v>237</v>
@@ -20738,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="EO45" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="EP45" t="s">
         <v>159</v>
@@ -23243,7 +23246,7 @@
         <v>159</v>
       </c>
       <c r="EQ51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:147">
@@ -23659,7 +23662,7 @@
         <v>159</v>
       </c>
       <c r="EQ52" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:147">
@@ -24075,7 +24078,7 @@
         <v>159</v>
       </c>
       <c r="EQ53" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:147">
@@ -24091,9 +24094,6 @@
       <c r="D54" t="s">
         <v>160</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
       <c r="F54">
         <v>0</v>
       </c>
@@ -24106,9 +24106,6 @@
       <c r="I54" t="s">
         <v>174</v>
       </c>
-      <c r="J54" t="s">
-        <v>180</v>
-      </c>
       <c r="K54">
         <v>0</v>
       </c>
@@ -24118,9 +24115,6 @@
       <c r="M54">
         <v>0</v>
       </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
       <c r="O54">
         <v>0</v>
       </c>
@@ -24128,15 +24122,12 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R54">
         <v>0</v>
       </c>
       <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
@@ -24146,22 +24137,22 @@
         <v>255</v>
       </c>
       <c r="W54" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="X54" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>287</v>
+        <v>283</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -24175,23 +24166,20 @@
       <c r="AF54">
         <v>0</v>
       </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>237</v>
+      <c r="AH54">
+        <v>0</v>
       </c>
       <c r="AI54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>287</v>
+        <v>237</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -24230,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="AY54" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="AZ54">
         <v>0</v>
@@ -24274,26 +24262,29 @@
       <c r="BM54">
         <v>0</v>
       </c>
-      <c r="BN54" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO54" t="s">
-        <v>218</v>
-      </c>
-      <c r="BP54" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ54" t="s">
-        <v>287</v>
-      </c>
-      <c r="BR54" t="s">
-        <v>237</v>
-      </c>
-      <c r="BS54" t="s">
-        <v>237</v>
-      </c>
-      <c r="BT54" t="s">
-        <v>237</v>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>0</v>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
       </c>
       <c r="BV54">
         <v>0</v>
@@ -24310,23 +24301,23 @@
       <c r="BZ54" t="s">
         <v>237</v>
       </c>
-      <c r="CA54">
-        <v>0</v>
+      <c r="CA54" t="s">
+        <v>470</v>
       </c>
       <c r="CB54">
         <v>0</v>
       </c>
-      <c r="CC54" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD54" t="s">
-        <v>237</v>
-      </c>
-      <c r="CE54" t="s">
-        <v>237</v>
-      </c>
-      <c r="CF54" t="s">
-        <v>237</v>
+      <c r="CC54">
+        <v>0</v>
+      </c>
+      <c r="CD54">
+        <v>0</v>
+      </c>
+      <c r="CE54">
+        <v>0</v>
+      </c>
+      <c r="CF54">
+        <v>0</v>
       </c>
       <c r="CG54">
         <v>0</v>
@@ -24340,17 +24331,17 @@
       <c r="CJ54">
         <v>0</v>
       </c>
-      <c r="CK54" t="s">
-        <v>202</v>
-      </c>
-      <c r="CL54" t="s">
-        <v>218</v>
-      </c>
-      <c r="CM54" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN54" t="s">
-        <v>287</v>
+      <c r="CK54">
+        <v>0</v>
+      </c>
+      <c r="CL54">
+        <v>0</v>
+      </c>
+      <c r="CM54">
+        <v>0</v>
+      </c>
+      <c r="CN54">
+        <v>0</v>
       </c>
       <c r="CO54">
         <v>0</v>
@@ -24389,7 +24380,7 @@
         <v>0</v>
       </c>
       <c r="DA54" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="DB54">
         <v>0</v>
@@ -24419,13 +24410,13 @@
         <v>237</v>
       </c>
       <c r="DS54" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="DT54">
         <v>0</v>
       </c>
       <c r="DU54" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="DV54" t="s">
         <v>180</v>
@@ -24433,9 +24424,6 @@
       <c r="DW54">
         <v>0</v>
       </c>
-      <c r="DX54" t="s">
-        <v>237</v>
-      </c>
       <c r="DY54" t="s">
         <v>237</v>
       </c>
@@ -24448,11 +24436,11 @@
       <c r="EB54">
         <v>0</v>
       </c>
-      <c r="EC54" t="s">
-        <v>237</v>
-      </c>
-      <c r="ED54" t="s">
-        <v>237</v>
+      <c r="EC54">
+        <v>0</v>
+      </c>
+      <c r="ED54">
+        <v>0</v>
       </c>
       <c r="EE54">
         <v>0</v>
@@ -24464,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="EH54" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="EI54">
         <v>0</v>
@@ -24491,7 +24479,7 @@
         <v>159</v>
       </c>
       <c r="EQ54" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:147">
@@ -24907,7 +24895,7 @@
         <v>159</v>
       </c>
       <c r="EQ55" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:147">
@@ -25323,7 +25311,7 @@
         <v>159</v>
       </c>
       <c r="EQ56" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:147">
@@ -25739,7 +25727,7 @@
         <v>159</v>
       </c>
       <c r="EQ57" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:147">
@@ -26155,7 +26143,7 @@
         <v>159</v>
       </c>
       <c r="EQ58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:147">
@@ -26571,7 +26559,7 @@
         <v>159</v>
       </c>
       <c r="EQ59" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:147">
@@ -26987,7 +26975,7 @@
         <v>159</v>
       </c>
       <c r="EQ60" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:147">
@@ -27406,7 +27394,7 @@
         <v>159</v>
       </c>
       <c r="EQ61" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:147">
@@ -27834,7 +27822,7 @@
         <v>159</v>
       </c>
       <c r="EQ62" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:147">
@@ -28223,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="EH63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="EI63" t="s">
         <v>237</v>
@@ -28244,13 +28232,13 @@
         <v>0</v>
       </c>
       <c r="EO63" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="EP63" t="s">
         <v>159</v>
       </c>
       <c r="EQ63" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:147">
@@ -28666,7 +28654,7 @@
         <v>159</v>
       </c>
       <c r="EQ64" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:147">
@@ -29082,7 +29070,7 @@
         <v>159</v>
       </c>
       <c r="EQ65" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:147">
@@ -29498,7 +29486,7 @@
         <v>159</v>
       </c>
       <c r="EQ66" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:147">
@@ -29914,7 +29902,7 @@
         <v>159</v>
       </c>
       <c r="EQ67" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:147">
@@ -30330,7 +30318,7 @@
         <v>159</v>
       </c>
       <c r="EQ68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:147">
@@ -30746,7 +30734,7 @@
         <v>159</v>
       </c>
       <c r="EQ69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:147">
@@ -31162,7 +31150,7 @@
         <v>159</v>
       </c>
       <c r="EQ70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:147">
@@ -31581,7 +31569,7 @@
         <v>159</v>
       </c>
       <c r="EQ71" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:147">
@@ -31994,7 +31982,7 @@
         <v>159</v>
       </c>
       <c r="EQ72" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:147">
@@ -32410,7 +32398,7 @@
         <v>159</v>
       </c>
       <c r="EQ73" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:147">
@@ -32826,7 +32814,7 @@
         <v>159</v>
       </c>
       <c r="EQ74" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:147">
@@ -33248,7 +33236,7 @@
         <v>159</v>
       </c>
       <c r="EQ75" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:147">
@@ -33664,7 +33652,7 @@
         <v>159</v>
       </c>
       <c r="EQ76" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:147">
@@ -34080,7 +34068,7 @@
         <v>159</v>
       </c>
       <c r="EQ77" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:147">
@@ -37279,7 +37267,7 @@
         <v>237</v>
       </c>
       <c r="CA85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="CB85">
         <v>0</v>
@@ -42472,7 +42460,7 @@
         <v>159</v>
       </c>
       <c r="EQ97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:147">
@@ -45378,7 +45366,7 @@
         <v>159</v>
       </c>
       <c r="EQ104" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:147">
@@ -45794,7 +45782,7 @@
         <v>159</v>
       </c>
       <c r="EQ105" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:147">
@@ -46210,7 +46198,7 @@
         <v>159</v>
       </c>
       <c r="EQ106" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="107" spans="1:147">
@@ -46226,9 +46214,6 @@
       <c r="D107" t="s">
         <v>160</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
       <c r="F107">
         <v>0</v>
       </c>
@@ -46241,9 +46226,6 @@
       <c r="I107" t="s">
         <v>174</v>
       </c>
-      <c r="J107" t="s">
-        <v>219</v>
-      </c>
       <c r="K107">
         <v>0</v>
       </c>
@@ -46253,9 +46235,6 @@
       <c r="M107">
         <v>0</v>
       </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
       <c r="O107">
         <v>0</v>
       </c>
@@ -46263,15 +46242,12 @@
         <v>0</v>
       </c>
       <c r="Q107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R107">
         <v>0</v>
       </c>
       <c r="S107">
-        <v>0</v>
-      </c>
-      <c r="T107">
         <v>0</v>
       </c>
       <c r="U107">
@@ -46281,22 +46257,22 @@
         <v>267</v>
       </c>
       <c r="W107" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="X107" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y107" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -46310,23 +46286,20 @@
       <c r="AF107">
         <v>0</v>
       </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="s">
-        <v>237</v>
+      <c r="AH107">
+        <v>0</v>
       </c>
       <c r="AI107" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ107" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>218</v>
-      </c>
-      <c r="AL107" t="s">
-        <v>285</v>
+        <v>237</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
       </c>
       <c r="AM107">
         <v>0</v>
@@ -46365,7 +46338,7 @@
         <v>0</v>
       </c>
       <c r="AY107" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="AZ107">
         <v>0</v>
@@ -46409,26 +46382,29 @@
       <c r="BM107">
         <v>0</v>
       </c>
-      <c r="BN107" t="s">
-        <v>218</v>
-      </c>
-      <c r="BO107" t="s">
-        <v>178</v>
-      </c>
-      <c r="BP107" t="s">
-        <v>218</v>
-      </c>
-      <c r="BQ107" t="s">
-        <v>285</v>
-      </c>
-      <c r="BR107" t="s">
-        <v>237</v>
-      </c>
-      <c r="BS107" t="s">
-        <v>237</v>
-      </c>
-      <c r="BT107" t="s">
-        <v>237</v>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+      <c r="BQ107">
+        <v>0</v>
+      </c>
+      <c r="BR107">
+        <v>0</v>
+      </c>
+      <c r="BS107">
+        <v>0</v>
+      </c>
+      <c r="BT107">
+        <v>0</v>
+      </c>
+      <c r="BU107">
+        <v>0</v>
       </c>
       <c r="BV107">
         <v>0</v>
@@ -46445,23 +46421,23 @@
       <c r="BZ107" t="s">
         <v>237</v>
       </c>
-      <c r="CA107">
-        <v>0</v>
+      <c r="CA107" t="s">
+        <v>470</v>
       </c>
       <c r="CB107">
         <v>0</v>
       </c>
-      <c r="CC107" t="s">
-        <v>237</v>
-      </c>
-      <c r="CD107" t="s">
-        <v>237</v>
-      </c>
-      <c r="CE107" t="s">
-        <v>237</v>
-      </c>
-      <c r="CF107" t="s">
-        <v>237</v>
+      <c r="CC107">
+        <v>0</v>
+      </c>
+      <c r="CD107">
+        <v>0</v>
+      </c>
+      <c r="CE107">
+        <v>0</v>
+      </c>
+      <c r="CF107">
+        <v>0</v>
       </c>
       <c r="CG107">
         <v>0</v>
@@ -46475,17 +46451,17 @@
       <c r="CJ107">
         <v>0</v>
       </c>
-      <c r="CK107" t="s">
-        <v>218</v>
-      </c>
-      <c r="CL107" t="s">
-        <v>178</v>
-      </c>
-      <c r="CM107" t="s">
-        <v>218</v>
-      </c>
-      <c r="CN107" t="s">
-        <v>285</v>
+      <c r="CK107">
+        <v>0</v>
+      </c>
+      <c r="CL107">
+        <v>0</v>
+      </c>
+      <c r="CM107">
+        <v>0</v>
+      </c>
+      <c r="CN107">
+        <v>0</v>
       </c>
       <c r="CO107">
         <v>0</v>
@@ -46524,7 +46500,7 @@
         <v>0</v>
       </c>
       <c r="DA107" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="DB107">
         <v>0</v>
@@ -46554,13 +46530,13 @@
         <v>237</v>
       </c>
       <c r="DS107" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="DT107">
         <v>0</v>
       </c>
       <c r="DU107" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="DV107" t="s">
         <v>219</v>
@@ -46568,9 +46544,6 @@
       <c r="DW107">
         <v>0</v>
       </c>
-      <c r="DX107" t="s">
-        <v>237</v>
-      </c>
       <c r="DY107" t="s">
         <v>237</v>
       </c>
@@ -46583,11 +46556,11 @@
       <c r="EB107">
         <v>0</v>
       </c>
-      <c r="EC107" t="s">
-        <v>237</v>
-      </c>
-      <c r="ED107" t="s">
-        <v>237</v>
+      <c r="EC107">
+        <v>0</v>
+      </c>
+      <c r="ED107">
+        <v>0</v>
       </c>
       <c r="EE107">
         <v>0</v>
@@ -46599,7 +46572,7 @@
         <v>0</v>
       </c>
       <c r="EH107" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="EI107">
         <v>0</v>
@@ -46626,7 +46599,7 @@
         <v>159</v>
       </c>
       <c r="EQ107" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:147">
@@ -47045,7 +47018,7 @@
         <v>159</v>
       </c>
       <c r="EQ108" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:147">
@@ -47461,7 +47434,7 @@
         <v>159</v>
       </c>
       <c r="EQ109" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" spans="1:147">
@@ -47877,7 +47850,7 @@
         <v>159</v>
       </c>
       <c r="EQ110" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:147">
@@ -49996,7 +49969,7 @@
         <v>159</v>
       </c>
       <c r="EQ115" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:147">
@@ -52959,7 +52932,7 @@
         <v>159</v>
       </c>
       <c r="EQ122" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:147">
@@ -53375,7 +53348,7 @@
         <v>159</v>
       </c>
       <c r="EQ123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:147">
@@ -53791,7 +53764,7 @@
         <v>159</v>
       </c>
       <c r="EQ124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:147">
@@ -54207,7 +54180,7 @@
         <v>159</v>
       </c>
       <c r="EQ125" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:147">
@@ -55913,7 +55886,7 @@
         <v>159</v>
       </c>
       <c r="EQ129" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="130" spans="1:147">
@@ -56329,7 +56302,7 @@
         <v>159</v>
       </c>
       <c r="EQ130" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" spans="1:147">
@@ -56751,7 +56724,7 @@
         <v>159</v>
       </c>
       <c r="EQ131" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" spans="1:147">
@@ -57167,7 +57140,7 @@
         <v>159</v>
       </c>
       <c r="EQ132" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:147">
@@ -57583,7 +57556,7 @@
         <v>159</v>
       </c>
       <c r="EQ133" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:147">
@@ -61375,7 +61348,7 @@
         <v>159</v>
       </c>
       <c r="EQ142" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:147">
@@ -61791,7 +61764,7 @@
         <v>159</v>
       </c>
       <c r="EQ143" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:147">
@@ -62213,7 +62186,7 @@
         <v>159</v>
       </c>
       <c r="EQ144" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:147">
@@ -62641,7 +62614,7 @@
         <v>159</v>
       </c>
       <c r="EQ145" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" spans="1:147">
@@ -63057,7 +63030,7 @@
         <v>159</v>
       </c>
       <c r="EQ146" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="1:147">
@@ -63296,7 +63269,7 @@
         <v>0</v>
       </c>
       <c r="CB147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="CC147" t="s">
         <v>176</v>
@@ -63479,7 +63452,7 @@
         <v>159</v>
       </c>
       <c r="EQ147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:147">
@@ -69285,7 +69258,7 @@
         <v>159</v>
       </c>
       <c r="EQ161" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:147">
@@ -69701,7 +69674,7 @@
         <v>159</v>
       </c>
       <c r="EQ162" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:147">
@@ -70117,7 +70090,7 @@
         <v>159</v>
       </c>
       <c r="EQ163" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="1:147">
@@ -70533,7 +70506,7 @@
         <v>159</v>
       </c>
       <c r="EQ164" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="165" spans="1:147">
@@ -70949,7 +70922,7 @@
         <v>159</v>
       </c>
       <c r="EQ165" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="166" spans="1:147">
@@ -71365,7 +71338,7 @@
         <v>159</v>
       </c>
       <c r="EQ166" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="167" spans="1:147">
@@ -71781,7 +71754,7 @@
         <v>159</v>
       </c>
       <c r="EQ167" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8767" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="496">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -712,6 +712,9 @@
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 40-44_yrs</t>
   </si>
   <si>
@@ -719,9 +722,6 @@
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 50+_yrs</t>
-  </si>
-  <si>
-    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs</t>
@@ -1018,7 +1018,7 @@
     <t>2025-05-23T12:16:46.389505Z</t>
   </si>
   <si>
-    <t>2025-08-05T09:26:49.758411Z</t>
+    <t>2025-08-05T10:22:46.449299Z</t>
   </si>
   <si>
     <t>2025-07-01T10:39:15.658840Z</t>
@@ -1060,7 +1060,7 @@
     <t>2025-05-23T12:16:45.534000Z</t>
   </si>
   <si>
-    <t>2025-08-05T08:11:36.038449Z</t>
+    <t>2025-08-05T10:32:59.387756Z</t>
   </si>
   <si>
     <t>2025-07-01T10:05:40.792146Z</t>
@@ -1465,6 +1465,9 @@
     <t>20-24_yrs 35-39_yrs 50_yrs</t>
   </si>
   <si>
+    <t>20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs</t>
   </si>
   <si>
@@ -6848,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="EF12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="EG12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="EH12" t="s">
         <v>191</v>
@@ -14393,7 +14396,7 @@
         <v>159</v>
       </c>
       <c r="EQ30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:147">
@@ -14632,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="CB31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="CC31" t="s">
         <v>288</v>
@@ -14746,7 +14749,7 @@
         <v>238</v>
       </c>
       <c r="DU31" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="DV31" t="s">
         <v>195</v>
@@ -14812,7 +14815,7 @@
         <v>159</v>
       </c>
       <c r="EQ31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:147">
@@ -16892,7 +16895,7 @@
         <v>159</v>
       </c>
       <c r="EQ36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:147">
@@ -17311,7 +17314,7 @@
         <v>159</v>
       </c>
       <c r="EQ37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:147">
@@ -17745,7 +17748,7 @@
         <v>159</v>
       </c>
       <c r="EQ38" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:147">
@@ -19891,7 +19894,7 @@
         <v>159</v>
       </c>
       <c r="EQ43" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:147">
@@ -20334,7 +20337,7 @@
         <v>159</v>
       </c>
       <c r="EQ44" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:147">
@@ -21191,9 +21194,6 @@
       <c r="D47" t="s">
         <v>161</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
         <v>0</v>
       </c>
@@ -21218,8 +21218,8 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47">
-        <v>0</v>
+      <c r="N47" t="s">
+        <v>232</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -21236,8 +21236,8 @@
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47">
-        <v>0</v>
+      <c r="T47" t="s">
+        <v>241</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -21249,7 +21249,7 @@
         <v>179</v>
       </c>
       <c r="X47" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="Y47" t="s">
         <v>287</v>
@@ -21275,26 +21275,26 @@
       <c r="AF47">
         <v>0</v>
       </c>
-      <c r="AG47">
-        <v>0</v>
+      <c r="AG47" t="s">
+        <v>297</v>
       </c>
       <c r="AH47" t="s">
         <v>238</v>
       </c>
-      <c r="AI47" t="s">
-        <v>238</v>
+      <c r="AI47">
+        <v>0</v>
       </c>
       <c r="AJ47" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="AK47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL47" t="s">
         <v>238</v>
       </c>
       <c r="AM47" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -21329,8 +21329,8 @@
       <c r="AX47">
         <v>0</v>
       </c>
-      <c r="AY47" t="s">
-        <v>238</v>
+      <c r="AY47">
+        <v>0</v>
       </c>
       <c r="AZ47" t="s">
         <v>238</v>
@@ -21389,11 +21389,14 @@
       <c r="BR47" t="s">
         <v>286</v>
       </c>
-      <c r="BS47" t="s">
-        <v>238</v>
-      </c>
-      <c r="BT47" t="s">
-        <v>238</v>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
       </c>
       <c r="BV47">
         <v>0</v>
@@ -21410,8 +21413,8 @@
       <c r="BZ47" t="s">
         <v>238</v>
       </c>
-      <c r="CA47">
-        <v>0</v>
+      <c r="CA47" t="s">
+        <v>483</v>
       </c>
       <c r="CB47">
         <v>0</v>
@@ -21488,20 +21491,17 @@
       <c r="CZ47">
         <v>0</v>
       </c>
-      <c r="DA47" t="s">
-        <v>238</v>
-      </c>
       <c r="DB47">
         <v>0</v>
       </c>
       <c r="DC47" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="DD47">
         <v>0</v>
       </c>
       <c r="DE47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DF47">
         <v>0</v>
@@ -21513,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="DI47" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="DJ47">
         <v>0</v>
@@ -21533,11 +21533,11 @@
       <c r="DS47" t="s">
         <v>238</v>
       </c>
-      <c r="DT47" t="s">
-        <v>238</v>
+      <c r="DT47">
+        <v>0</v>
       </c>
       <c r="DU47" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="DV47" t="s">
         <v>179</v>
@@ -21554,11 +21554,11 @@
       <c r="DZ47" t="s">
         <v>238</v>
       </c>
-      <c r="EA47" t="s">
-        <v>238</v>
-      </c>
-      <c r="EB47" t="s">
-        <v>238</v>
+      <c r="EA47">
+        <v>0</v>
+      </c>
+      <c r="EB47">
+        <v>0</v>
       </c>
       <c r="EC47" t="s">
         <v>238</v>
@@ -21576,13 +21576,13 @@
         <v>0</v>
       </c>
       <c r="EH47" t="s">
-        <v>238</v>
-      </c>
-      <c r="EI47" t="s">
-        <v>238</v>
-      </c>
-      <c r="EJ47" t="s">
-        <v>238</v>
+        <v>219</v>
+      </c>
+      <c r="EI47">
+        <v>0</v>
+      </c>
+      <c r="EJ47">
+        <v>0</v>
       </c>
       <c r="EK47">
         <v>0</v>
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="DX48" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="DY48" t="s">
         <v>238</v>
@@ -22025,7 +22025,7 @@
         <v>0</v>
       </c>
       <c r="EO48" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="EP48" t="s">
         <v>159</v>
@@ -24530,7 +24530,7 @@
         <v>159</v>
       </c>
       <c r="EQ54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:147">
@@ -24946,7 +24946,7 @@
         <v>159</v>
       </c>
       <c r="EQ55" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:147">
@@ -25362,7 +25362,7 @@
         <v>159</v>
       </c>
       <c r="EQ56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:147">
@@ -25586,7 +25586,7 @@
         <v>238</v>
       </c>
       <c r="CA57" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="CB57">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>159</v>
       </c>
       <c r="EQ57" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:147">
@@ -26179,7 +26179,7 @@
         <v>159</v>
       </c>
       <c r="EQ58" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:147">
@@ -26595,7 +26595,7 @@
         <v>159</v>
       </c>
       <c r="EQ59" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:147">
@@ -27011,7 +27011,7 @@
         <v>159</v>
       </c>
       <c r="EQ60" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:147">
@@ -27427,7 +27427,7 @@
         <v>159</v>
       </c>
       <c r="EQ61" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:147">
@@ -27843,7 +27843,7 @@
         <v>159</v>
       </c>
       <c r="EQ62" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:147">
@@ -28259,7 +28259,7 @@
         <v>159</v>
       </c>
       <c r="EQ63" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:147">
@@ -28678,7 +28678,7 @@
         <v>159</v>
       </c>
       <c r="EQ64" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:147">
@@ -29106,7 +29106,7 @@
         <v>159</v>
       </c>
       <c r="EQ65" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:147">
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="EH66" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="EI66" t="s">
         <v>238</v>
@@ -29516,13 +29516,13 @@
         <v>0</v>
       </c>
       <c r="EO66" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="EP66" t="s">
         <v>159</v>
       </c>
       <c r="EQ66" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:147">
@@ -29938,7 +29938,7 @@
         <v>159</v>
       </c>
       <c r="EQ67" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:147">
@@ -30354,7 +30354,7 @@
         <v>159</v>
       </c>
       <c r="EQ68" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:147">
@@ -30770,7 +30770,7 @@
         <v>159</v>
       </c>
       <c r="EQ69" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:147">
@@ -31186,7 +31186,7 @@
         <v>159</v>
       </c>
       <c r="EQ70" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:147">
@@ -31602,7 +31602,7 @@
         <v>159</v>
       </c>
       <c r="EQ71" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:147">
@@ -32018,7 +32018,7 @@
         <v>159</v>
       </c>
       <c r="EQ72" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:147">
@@ -32434,7 +32434,7 @@
         <v>159</v>
       </c>
       <c r="EQ73" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:147">
@@ -32853,7 +32853,7 @@
         <v>159</v>
       </c>
       <c r="EQ74" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:147">
@@ -33266,7 +33266,7 @@
         <v>159</v>
       </c>
       <c r="EQ75" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:147">
@@ -33682,7 +33682,7 @@
         <v>159</v>
       </c>
       <c r="EQ76" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:147">
@@ -34098,7 +34098,7 @@
         <v>159</v>
       </c>
       <c r="EQ77" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:147">
@@ -34520,7 +34520,7 @@
         <v>159</v>
       </c>
       <c r="EQ78" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:147">
@@ -34936,7 +34936,7 @@
         <v>159</v>
       </c>
       <c r="EQ79" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:147">
@@ -35352,7 +35352,7 @@
         <v>159</v>
       </c>
       <c r="EQ80" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:147">
@@ -35393,7 +35393,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -38802,7 +38802,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -38988,7 +38988,7 @@
         <v>238</v>
       </c>
       <c r="CA89" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="CB89">
         <v>0</v>
@@ -40867,7 +40867,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -41062,7 +41062,7 @@
         <v>238</v>
       </c>
       <c r="CA94" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="CB94">
         <v>0</v>
@@ -41286,7 +41286,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -45028,7 +45028,7 @@
         <v>159</v>
       </c>
       <c r="EQ103" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:147">
@@ -47934,7 +47934,7 @@
         <v>159</v>
       </c>
       <c r="EQ110" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="1:147">
@@ -48350,7 +48350,7 @@
         <v>159</v>
       </c>
       <c r="EQ111" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="1:147">
@@ -48766,7 +48766,7 @@
         <v>159</v>
       </c>
       <c r="EQ112" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:147">
@@ -48990,7 +48990,7 @@
         <v>238</v>
       </c>
       <c r="CA113" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="CB113">
         <v>0</v>
@@ -49167,7 +49167,7 @@
         <v>159</v>
       </c>
       <c r="EQ113" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:147">
@@ -49586,7 +49586,7 @@
         <v>159</v>
       </c>
       <c r="EQ114" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:147">
@@ -50002,7 +50002,7 @@
         <v>159</v>
       </c>
       <c r="EQ115" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:147">
@@ -50418,7 +50418,7 @@
         <v>159</v>
       </c>
       <c r="EQ116" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:147">
@@ -52537,7 +52537,7 @@
         <v>159</v>
       </c>
       <c r="EQ121" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:147">
@@ -55500,7 +55500,7 @@
         <v>159</v>
       </c>
       <c r="EQ128" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:147">
@@ -55916,7 +55916,7 @@
         <v>159</v>
       </c>
       <c r="EQ129" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:147">
@@ -56332,7 +56332,7 @@
         <v>159</v>
       </c>
       <c r="EQ130" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:147">
@@ -56748,7 +56748,7 @@
         <v>159</v>
       </c>
       <c r="EQ131" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:147">
@@ -58885,7 +58885,7 @@
         <v>159</v>
       </c>
       <c r="EQ136" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" spans="1:147">
@@ -59301,7 +59301,7 @@
         <v>159</v>
       </c>
       <c r="EQ137" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:147">
@@ -59723,7 +59723,7 @@
         <v>159</v>
       </c>
       <c r="EQ138" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:147">
@@ -60139,7 +60139,7 @@
         <v>159</v>
       </c>
       <c r="EQ139" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="1:147">
@@ -60555,7 +60555,7 @@
         <v>159</v>
       </c>
       <c r="EQ140" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:147">
@@ -64775,7 +64775,7 @@
         <v>159</v>
       </c>
       <c r="EQ150" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:147">
@@ -65191,7 +65191,7 @@
         <v>159</v>
       </c>
       <c r="EQ151" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:147">
@@ -65613,7 +65613,7 @@
         <v>159</v>
       </c>
       <c r="EQ152" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:147">
@@ -66041,7 +66041,7 @@
         <v>159</v>
       </c>
       <c r="EQ153" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:147">
@@ -66457,7 +66457,7 @@
         <v>159</v>
       </c>
       <c r="EQ154" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:147">
@@ -66696,7 +66696,7 @@
         <v>0</v>
       </c>
       <c r="CB155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="CC155" t="s">
         <v>176</v>
@@ -66879,7 +66879,7 @@
         <v>159</v>
       </c>
       <c r="EQ155" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:147">
@@ -73113,7 +73113,7 @@
         <v>159</v>
       </c>
       <c r="EQ170" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:147">
@@ -73529,7 +73529,7 @@
         <v>159</v>
       </c>
       <c r="EQ171" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:147">
@@ -73945,7 +73945,7 @@
         <v>159</v>
       </c>
       <c r="EQ172" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:147">
@@ -74361,7 +74361,7 @@
         <v>159</v>
       </c>
       <c r="EQ173" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:147">
@@ -74777,7 +74777,7 @@
         <v>159</v>
       </c>
       <c r="EQ174" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:147">
@@ -75193,7 +75193,7 @@
         <v>159</v>
       </c>
       <c r="EQ175" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:147">
@@ -75609,7 +75609,7 @@
         <v>159</v>
       </c>
       <c r="EQ176" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8656" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8633" uniqueCount="500">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -706,7 +706,7 @@
     <t>Swelling/ moderate</t>
   </si>
   <si>
-    <t>30-34_yrs</t>
+    <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50+_yrs</t>
@@ -943,7 +943,7 @@
     <t>2025-03-31T16:59:34.349242Z</t>
   </si>
   <si>
-    <t>2025-08-07T09:01:51.023207Z</t>
+    <t>2025-08-07T09:47:19.395370Z</t>
   </si>
   <si>
     <t>2025-07-19T10:04:43.558609Z</t>
@@ -1387,7 +1387,7 @@
     <t>2025-03-04T11:19:42.842238Z</t>
   </si>
   <si>
-    <t>2025-07-31T22:28:51.925036Z</t>
+    <t>2025-08-07T09:38:58.546918Z</t>
   </si>
   <si>
     <t>2025-07-03T04:47:15.583578Z</t>
@@ -3339,23 +3339,23 @@
       <c r="BM4">
         <v>0</v>
       </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
+      <c r="BN4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>292</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>290</v>
       </c>
       <c r="BQ4" t="s">
         <v>240</v>
       </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
+      <c r="BR4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>241</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -3381,14 +3381,14 @@
       <c r="CB4">
         <v>0</v>
       </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
+      <c r="CC4" t="s">
+        <v>241</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>241</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>241</v>
       </c>
       <c r="CF4" t="s">
         <v>241</v>
@@ -3405,14 +3405,14 @@
       <c r="CJ4">
         <v>0</v>
       </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
+      <c r="CK4" t="s">
+        <v>290</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>290</v>
       </c>
       <c r="CN4" t="s">
         <v>240</v>
@@ -65135,9 +65135,6 @@
       <c r="D152" t="s">
         <v>160</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
       <c r="F152">
         <v>0</v>
       </c>
@@ -65150,9 +65147,6 @@
       <c r="I152" t="s">
         <v>168</v>
       </c>
-      <c r="J152" t="s">
-        <v>179</v>
-      </c>
       <c r="K152">
         <v>0</v>
       </c>
@@ -65162,9 +65156,6 @@
       <c r="M152">
         <v>0</v>
       </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
       <c r="O152">
         <v>0</v>
       </c>
@@ -65172,15 +65163,12 @@
         <v>0</v>
       </c>
       <c r="Q152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R152">
         <v>0</v>
       </c>
       <c r="S152">
-        <v>0</v>
-      </c>
-      <c r="T152">
         <v>0</v>
       </c>
       <c r="U152">
@@ -65190,25 +65178,25 @@
         <v>167</v>
       </c>
       <c r="W152" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="X152" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="Y152" t="s">
-        <v>176</v>
+        <v>287</v>
       </c>
       <c r="Z152" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AA152" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB152" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC152" t="s">
-        <v>240</v>
+        <v>292</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
       </c>
       <c r="AD152">
         <v>0</v>
@@ -65219,26 +65207,26 @@
       <c r="AF152">
         <v>0</v>
       </c>
-      <c r="AG152">
-        <v>0</v>
-      </c>
-      <c r="AH152" t="s">
-        <v>241</v>
-      </c>
-      <c r="AI152" t="s">
-        <v>292</v>
-      </c>
-      <c r="AJ152" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK152" t="s">
-        <v>292</v>
-      </c>
-      <c r="AL152" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM152" t="s">
-        <v>240</v>
+      <c r="AG152" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH152">
+        <v>0</v>
+      </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>0</v>
+      </c>
+      <c r="AM152">
+        <v>0</v>
       </c>
       <c r="AN152">
         <v>0</v>
@@ -65273,14 +65261,14 @@
       <c r="AX152">
         <v>0</v>
       </c>
-      <c r="AY152" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ152" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA152" t="s">
-        <v>241</v>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
       </c>
       <c r="BB152">
         <v>0</v>
@@ -65318,26 +65306,29 @@
       <c r="BM152">
         <v>0</v>
       </c>
-      <c r="BN152" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO152" t="s">
-        <v>287</v>
-      </c>
-      <c r="BP152" t="s">
-        <v>219</v>
-      </c>
-      <c r="BQ152" t="s">
-        <v>240</v>
-      </c>
-      <c r="BR152" t="s">
-        <v>240</v>
-      </c>
-      <c r="BS152" t="s">
-        <v>241</v>
-      </c>
-      <c r="BT152" t="s">
-        <v>241</v>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
+        <v>0</v>
+      </c>
+      <c r="BQ152">
+        <v>0</v>
+      </c>
+      <c r="BR152">
+        <v>0</v>
+      </c>
+      <c r="BS152">
+        <v>0</v>
+      </c>
+      <c r="BT152">
+        <v>0</v>
+      </c>
+      <c r="BU152">
+        <v>0</v>
       </c>
       <c r="BV152">
         <v>0</v>
@@ -65354,26 +65345,23 @@
       <c r="BZ152" t="s">
         <v>241</v>
       </c>
-      <c r="CA152">
-        <v>0</v>
-      </c>
       <c r="CB152">
         <v>0</v>
       </c>
-      <c r="CC152" t="s">
-        <v>241</v>
-      </c>
-      <c r="CD152" t="s">
-        <v>241</v>
-      </c>
-      <c r="CE152" t="s">
-        <v>241</v>
-      </c>
-      <c r="CF152" t="s">
-        <v>241</v>
-      </c>
-      <c r="CG152" t="s">
-        <v>241</v>
+      <c r="CC152">
+        <v>0</v>
+      </c>
+      <c r="CD152">
+        <v>0</v>
+      </c>
+      <c r="CE152">
+        <v>0</v>
+      </c>
+      <c r="CF152">
+        <v>0</v>
+      </c>
+      <c r="CG152">
+        <v>0</v>
       </c>
       <c r="CH152">
         <v>0</v>
@@ -65384,20 +65372,20 @@
       <c r="CJ152">
         <v>0</v>
       </c>
-      <c r="CK152" t="s">
-        <v>176</v>
-      </c>
-      <c r="CL152" t="s">
-        <v>287</v>
-      </c>
-      <c r="CM152" t="s">
-        <v>219</v>
-      </c>
-      <c r="CN152" t="s">
-        <v>240</v>
-      </c>
-      <c r="CO152" t="s">
-        <v>240</v>
+      <c r="CK152">
+        <v>0</v>
+      </c>
+      <c r="CL152">
+        <v>0</v>
+      </c>
+      <c r="CM152">
+        <v>0</v>
+      </c>
+      <c r="CN152">
+        <v>0</v>
+      </c>
+      <c r="CO152">
+        <v>0</v>
       </c>
       <c r="CP152">
         <v>0</v>
@@ -65432,21 +65420,12 @@
       <c r="CZ152">
         <v>0</v>
       </c>
-      <c r="DA152" t="s">
-        <v>292</v>
-      </c>
       <c r="DB152">
         <v>0</v>
       </c>
-      <c r="DC152" t="s">
-        <v>292</v>
-      </c>
       <c r="DD152">
         <v>0</v>
       </c>
-      <c r="DE152" t="s">
-        <v>292</v>
-      </c>
       <c r="DF152">
         <v>0</v>
       </c>
@@ -65475,7 +65454,7 @@
         <v>0</v>
       </c>
       <c r="DU152" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="DV152" t="s">
         <v>179</v>
@@ -65483,9 +65462,6 @@
       <c r="DW152">
         <v>0</v>
       </c>
-      <c r="DX152" t="s">
-        <v>241</v>
-      </c>
       <c r="DY152" t="s">
         <v>241</v>
       </c>
@@ -65498,11 +65474,11 @@
       <c r="EB152">
         <v>0</v>
       </c>
-      <c r="EC152" t="s">
-        <v>241</v>
-      </c>
-      <c r="ED152" t="s">
-        <v>241</v>
+      <c r="EC152">
+        <v>0</v>
+      </c>
+      <c r="ED152">
+        <v>0</v>
       </c>
       <c r="EE152">
         <v>0</v>
@@ -65514,7 +65490,7 @@
         <v>0</v>
       </c>
       <c r="EH152" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="EI152">
         <v>0</v>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -1387,7 +1387,7 @@
     <t>2025-03-04T11:19:42.842238Z</t>
   </si>
   <si>
-    <t>2025-08-07T09:38:58.546918Z</t>
+    <t>2025-08-07T10:06:48.503912Z</t>
   </si>
   <si>
     <t>2025-07-03T04:47:15.583578Z</t>

--- a/generalDF1.xlsx
+++ b/generalDF1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8633" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8653" uniqueCount="500">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1387,7 +1387,7 @@
     <t>2025-03-04T11:19:42.842238Z</t>
   </si>
   <si>
-    <t>2025-08-07T10:06:48.503912Z</t>
+    <t>2025-08-07T10:47:53.451885Z</t>
   </si>
   <si>
     <t>2025-07-03T04:47:15.583578Z</t>
@@ -65147,6 +65147,9 @@
       <c r="I152" t="s">
         <v>168</v>
       </c>
+      <c r="J152" t="s">
+        <v>179</v>
+      </c>
       <c r="K152">
         <v>0</v>
       </c>
@@ -65155,6 +65158,9 @@
       </c>
       <c r="M152">
         <v>0</v>
+      </c>
+      <c r="N152" t="s">
+        <v>231</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -65306,29 +65312,26 @@
       <c r="BM152">
         <v>0</v>
       </c>
-      <c r="BN152">
-        <v>0</v>
-      </c>
-      <c r="BO152">
-        <v>0</v>
-      </c>
-      <c r="BP152">
-        <v>0</v>
-      </c>
-      <c r="BQ152">
-        <v>0</v>
-      </c>
-      <c r="BR152">
-        <v>0</v>
-      </c>
-      <c r="BS152">
-        <v>0</v>
-      </c>
-      <c r="BT152">
-        <v>0</v>
-      </c>
-      <c r="BU152">
-        <v>0</v>
+      <c r="BN152" t="s">
+        <v>176</v>
+      </c>
+      <c r="BO152" t="s">
+        <v>287</v>
+      </c>
+      <c r="BP152" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ152" t="s">
+        <v>240</v>
+      </c>
+      <c r="BR152" t="s">
+        <v>240</v>
+      </c>
+      <c r="BS152" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT152" t="s">
+        <v>241</v>
       </c>
       <c r="BV152">
         <v>0</v>
@@ -65348,20 +65351,20 @@
       <c r="CB152">
         <v>0</v>
       </c>
-      <c r="CC152">
-        <v>0</v>
-      </c>
-      <c r="CD152">
-        <v>0</v>
-      </c>
-      <c r="CE152">
-        <v>0</v>
-      </c>
-      <c r="CF152">
-        <v>0</v>
-      </c>
-      <c r="CG152">
-        <v>0</v>
+      <c r="CC152" t="s">
+        <v>241</v>
+      </c>
+      <c r="CD152" t="s">
+        <v>241</v>
+      </c>
+      <c r="CE152" t="s">
+        <v>241</v>
+      </c>
+      <c r="CF152" t="s">
+        <v>241</v>
+      </c>
+      <c r="CG152" t="s">
+        <v>241</v>
       </c>
       <c r="CH152">
         <v>0</v>
@@ -65372,20 +65375,20 @@
       <c r="CJ152">
         <v>0</v>
       </c>
-      <c r="CK152">
-        <v>0</v>
-      </c>
-      <c r="CL152">
-        <v>0</v>
-      </c>
-      <c r="CM152">
-        <v>0</v>
-      </c>
-      <c r="CN152">
-        <v>0</v>
-      </c>
-      <c r="CO152">
-        <v>0</v>
+      <c r="CK152" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL152" t="s">
+        <v>287</v>
+      </c>
+      <c r="CM152" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN152" t="s">
+        <v>240</v>
+      </c>
+      <c r="CO152" t="s">
+        <v>240</v>
       </c>
       <c r="CP152">
         <v>0</v>
@@ -65461,6 +65464,9 @@
       </c>
       <c r="DW152">
         <v>0</v>
+      </c>
+      <c r="DX152" t="s">
+        <v>241</v>
       </c>
       <c r="DY152" t="s">
         <v>241</v>
